--- a/song_pattern.xlsx
+++ b/song_pattern.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
   <si>
     <t xml:space="preserve">cho tôi nghe </t>
   </si>
@@ -207,142 +207,115 @@
     <t xml:space="preserve">s1 + s2 + c1 + artist_1 </t>
   </si>
   <si>
-    <t>s1 + a1 + location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1 + c1 + date + month </t>
-  </si>
-  <si>
-    <t>s1 + date + month</t>
-  </si>
-  <si>
-    <t>s1 + c1 + pod + date + month</t>
-  </si>
-  <si>
-    <t>s1 + date + month + e1</t>
-  </si>
-  <si>
-    <t>s1 + c1 + date + month + e1</t>
-  </si>
-  <si>
-    <t>s1 + c1 + pod + date + month + e1</t>
-  </si>
-  <si>
-    <t>s1 + c1 + date + month + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + c1 + date + month + a1 + location + e1</t>
-  </si>
-  <si>
-    <t>s1 + date + month + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + date + month + a1 + location + e1</t>
-  </si>
-  <si>
-    <t>s1 + a1 + location + c1 + date + month</t>
-  </si>
-  <si>
-    <t>s1 + a1 + location + c1 + date + month + e1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1 + a1 + location + </t>
-  </si>
-  <si>
-    <t>s1 + e1 + c1 + date + month</t>
-  </si>
-  <si>
-    <t>s1 + e1 + date + month</t>
-  </si>
-  <si>
-    <t>s1 + e1 + c1 + date + month + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + e1 + date + month + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + e1 + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + e1 + c1 + pod + date + month</t>
-  </si>
-  <si>
-    <t>s1 + e1 + pod + date + month</t>
-  </si>
-  <si>
-    <t>s1 + e1 + c1 + pod + date + month + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + e1 + pod+ date + month + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + date_name + week + e1</t>
-  </si>
-  <si>
-    <t>s1 + date_name + week + a1 + location + e1</t>
-  </si>
-  <si>
-    <t>s1 + date_name + week</t>
-  </si>
-  <si>
-    <t>s1 + date_name + week + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + a1 + location + date_name + week</t>
-  </si>
-  <si>
-    <t>s1 + pod + date_name + week + e1</t>
-  </si>
-  <si>
-    <t>s1 + pod + date_name + week + a1 + location + e1</t>
-  </si>
-  <si>
-    <t>s1 + pod + date_name + week</t>
-  </si>
-  <si>
-    <t>s1 + pod + date_name + week + a1 + location</t>
-  </si>
-  <si>
-    <t>s1 + a1 + location + pod + date_name + week</t>
-  </si>
-  <si>
-    <t>s1 + a1 + location + pod + date_name + week + e1</t>
-  </si>
-  <si>
-    <t>date_name + week + s2 + e1</t>
-  </si>
-  <si>
-    <t>date_name + week + a1 + location + s2 + e1</t>
-  </si>
-  <si>
-    <t>date_name + week + s2 + a1 + location + e1</t>
-  </si>
-  <si>
-    <t>date_name + week + b1 + weather + d1</t>
-  </si>
-  <si>
-    <t>date_name + week + a1 + location + b1 + weather + d1</t>
-  </si>
-  <si>
-    <t>date_name + week + b1 + weather + a1 + location + d1</t>
-  </si>
-  <si>
-    <t>pod + date_name + week + s2 + e1</t>
-  </si>
-  <si>
-    <t>pod + date_name + week + a1 + location + s2 + e1</t>
-  </si>
-  <si>
-    <t>pod + date_name + week + s2 + a1 + location + e1</t>
-  </si>
-  <si>
-    <t>pod + date_name + week + b1 + weather + d1</t>
-  </si>
-  <si>
-    <t>pod + date_name + week + a1 + location + b1 + weather + d1</t>
-  </si>
-  <si>
-    <t>pod + date_name + week + b1 + weather + a1 + location + d1</t>
+    <t>ca khúc</t>
+  </si>
+  <si>
+    <t>một ca khúc</t>
+  </si>
+  <si>
+    <t>nhạc</t>
+  </si>
+  <si>
+    <t>tôi muốn phát</t>
+  </si>
+  <si>
+    <t>phát</t>
+  </si>
+  <si>
+    <t>phát cho tôi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phát giúp tôi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phát dùm tôi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phát cho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phát giúp </t>
+  </si>
+  <si>
+    <t>phát giùm</t>
+  </si>
+  <si>
+    <t>bất kỳ</t>
+  </si>
+  <si>
+    <t>bất kì</t>
+  </si>
+  <si>
+    <t>bởi</t>
+  </si>
+  <si>
+    <t>bởi nhạc sĩ</t>
+  </si>
+  <si>
+    <t>bởi nghệ sĩ</t>
+  </si>
+  <si>
+    <t>bởi ca sĩ</t>
+  </si>
+  <si>
+    <t>bởi nhóm</t>
+  </si>
+  <si>
+    <t>bởi ban nhạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 +  song_name </t>
+  </si>
+  <si>
+    <t>s1 +  song_name + b1 + album</t>
+  </si>
+  <si>
+    <t>s1 +  song_name + c1 + artist_1</t>
+  </si>
+  <si>
+    <t>s1 +  song_name + b1 + album + c1 + artist_1</t>
+  </si>
+  <si>
+    <t>s1 +  song_name + b1 + album + c1 + artist_1 + d1 + artist_2</t>
+  </si>
+  <si>
+    <t>s1 + a1 +  song_name + artist_1</t>
+  </si>
+  <si>
+    <t>s1 + a1 +  song_name + b1 + album + artist_1</t>
+  </si>
+  <si>
+    <t>s1 + a1 +  song_name + b1 + album + artist_1 + d1 + artist_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + s3 + b1 + album + artist_1 </t>
+  </si>
+  <si>
+    <t>s1 + s2 + s3 + b1 + album + artist_1 + d1 + artist_2</t>
+  </si>
+  <si>
+    <t>s1 + s2 + s3 + artist_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + genre + s3 + artist_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + b1 + album + artist_1 </t>
+  </si>
+  <si>
+    <t>s1 + s2 + b1 + album + artist_1 + d1 + artist_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + artist_1 </t>
+  </si>
+  <si>
+    <t>s1 +  song_name + artist_1</t>
+  </si>
+  <si>
+    <t>s1 +  song_name + b1 + album + artist_1</t>
+  </si>
+  <si>
+    <t>s1 +  song_name + b1 + album + artist_1 + d1 + artist_2</t>
   </si>
 </sst>
 </file>
@@ -670,10 +643,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -685,7 +658,7 @@
     <col min="10" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -710,8 +683,9 @@
       <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -736,8 +710,9 @@
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -762,14 +737,18 @@
       <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -783,10 +762,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
@@ -794,10 +782,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
@@ -805,7 +799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -816,55 +810,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -872,7 +884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -880,7 +892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -888,12 +900,271 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -903,251 +1174,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A47" sqref="A1:A47"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A42" sqref="A1:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>93</v>
+      <c r="A27" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>94</v>
+      <c r="A28" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>95</v>
+      <c r="A29" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>96</v>
+      <c r="A30" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>97</v>
+      <c r="A31" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>98</v>
+      <c r="A32" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>73</v>
+      <c r="A33" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>74</v>
+      <c r="A34" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>75</v>
+      <c r="A35" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>76</v>
+      <c r="A36" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>77</v>
+      <c r="A37" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>104</v>
+      <c r="A42" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>